--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_fts.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_fts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DED7DD-9254-4BCF-A728-C413AC83F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD29F291-2A76-4F5B-823B-E695AEA41E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -431,12 +431,6 @@
     <t>Le code doit être un nombre à deux chiffres entre 999 et 10000</t>
   </si>
   <si>
-    <t>ci_lf_pretas_2406_2_fts</t>
-  </si>
-  <si>
-    <t>(2024 Juin) 2. Pre-TAS FL Résultat FTS</t>
-  </si>
-  <si>
     <t>d_region</t>
   </si>
   <si>
@@ -476,9 +470,6 @@
     <t>end repeat</t>
   </si>
   <si>
-    <t>lr_fts_2406</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ce code d'identification est déjà utilisé ou la valeur n'est pas comprise entre 1 et 410 </t>
   </si>
   <si>
@@ -489,6 +480,15 @@
   </si>
   <si>
     <t>(. &gt; 0 and . &lt;= 410) and not(selected(${C3}, ${d_num}))</t>
+  </si>
+  <si>
+    <t>lr_fts_2406_1</t>
+  </si>
+  <si>
+    <t>(2024 Juin) 2. Pre-TAS FL Résultat FTS V1</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_2406_2_fts_v1</t>
   </si>
 </sst>
 </file>
@@ -1040,11 +1040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>15</v>
@@ -1143,10 +1143,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="14"/>
@@ -1189,7 +1189,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>23</v>
@@ -1212,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -1250,7 +1250,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
@@ -1258,13 +1258,13 @@
     </row>
     <row r="8" spans="1:14" s="10" customFormat="1">
       <c r="A8" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="35"/>
@@ -1283,7 +1283,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -1292,7 +1292,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -1303,7 +1303,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -1312,7 +1312,7 @@
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" ht="47.25">
       <c r="A12" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>26</v>
@@ -1341,10 +1341,10 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -1371,7 +1371,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>19</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="33" spans="1:14" customFormat="1">
       <c r="A33" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="40"/>
@@ -2124,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>128</v>

--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_fts.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_2_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD29F291-2A76-4F5B-823B-E695AEA41E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52539799-A24E-4779-9C79-77B1060E6FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -423,9 +423,6 @@
   </si>
   <si>
     <t xml:space="preserve">allow_choice_duplicates </t>
-  </si>
-  <si>
-    <t>. &gt; 999 and .&lt; 10000</t>
   </si>
   <si>
     <t>Le code doit être un nombre à deux chiffres entre 999 et 10000</t>
@@ -1040,11 +1037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1114,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>15</v>
@@ -1143,10 +1140,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="14"/>
@@ -1189,7 +1186,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>23</v>
@@ -1212,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>24</v>
@@ -1221,11 +1218,9 @@
         <v>25</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -1241,7 +1236,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -1250,7 +1245,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
@@ -1258,13 +1253,13 @@
     </row>
     <row r="8" spans="1:14" s="10" customFormat="1">
       <c r="A8" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>138</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="35"/>
@@ -1283,7 +1278,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -1292,7 +1287,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -1303,7 +1298,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -1312,7 +1307,7 @@
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -1341,10 +1336,10 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -1371,7 +1366,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>19</v>
@@ -1839,7 +1834,7 @@
     </row>
     <row r="33" spans="1:14" customFormat="1">
       <c r="A33" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="40"/>
@@ -2124,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2151,10 +2146,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>128</v>
